--- a/src/attributions/attributions_ig_traj_368.xlsx
+++ b/src/attributions/attributions_ig_traj_368.xlsx
@@ -1007,127 +1007,127 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0.3627581335886134</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01412549445437421</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.006425596446493946</v>
+        <v>0.04899279074439326</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0.1667311126853857</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04644909290396223</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>0.1487365353368698</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.033575499355295e-05</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001234984485990989</v>
+        <v>0.01244975482209235</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0.0225240194381154</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q2" t="n">
         <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02792826392841671</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0</v>
+        <v>-0.01050418240155935</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005450280080468535</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.06214742375297676</v>
+        <v>-0.1427917010378466</v>
       </c>
       <c r="X2" t="n">
-        <v>-0</v>
+        <v>-0.07094032297790012</v>
       </c>
       <c r="Y2" t="n">
         <v>-0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.03502424069546178</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0</v>
+        <v>-0.1068237803577913</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.02515174072427034</v>
+        <v>-0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.01553823476219312</v>
+        <v>-0.03933427067064325</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>0.03848530437178931</v>
       </c>
       <c r="AH2" t="n">
         <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.03736349243208323</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0</v>
+        <v>0.0911264784404542</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.01631887236568805</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.01226009263658783</v>
+        <v>-0.04922120788328983</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>-0.223801597773307</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -1136,241 +1136,241 @@
         <v>-0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.01227819609632389</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0</v>
+        <v>0.6310108643802869</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.03437958511860238</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01146114555585874</v>
+        <v>0.07867299647453106</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0.2438882892448629</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
         <v>-0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.08460724382084472</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0</v>
+        <v>0.1021876374300389</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.01498686680641152</v>
+        <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.01450874962019215</v>
+        <v>-0.06684412634644454</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>-0.08788578460158315</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ2" t="n">
         <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.01112997355029329</v>
+        <v>-0</v>
       </c>
       <c r="BL2" t="n">
         <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0</v>
+        <v>0.23903565042781</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.009132327131946612</v>
+        <v>-0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.01250900295350796</v>
+        <v>0.08262264482511081</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0</v>
+        <v>0.03965125078456364</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.0349091771668391</v>
+        <v>-0</v>
       </c>
       <c r="BU2" t="n">
         <v>-0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0</v>
+        <v>0.2735758709693976</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.03017380892560761</v>
+        <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.005927929913921283</v>
+        <v>-0.01640830039058285</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>-0.02002668133928057</v>
       </c>
       <c r="CA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB2" t="n">
         <v>-0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.06242823766647196</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
         <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0.1418637592240376</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.002967352007203774</v>
+        <v>-0</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.0004342906418740744</v>
+        <v>-0.0580024739732671</v>
       </c>
       <c r="CI2" t="n">
-        <v>0</v>
+        <v>0.1326411449883271</v>
       </c>
       <c r="CJ2" t="n">
         <v>-0</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.01456358056062239</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>0.03941951518240323</v>
       </c>
       <c r="CO2" t="n">
         <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.01481455715545809</v>
+        <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.01729281894272342</v>
+        <v>0.01338405352506511</v>
       </c>
       <c r="CR2" t="n">
-        <v>0</v>
+        <v>-0.08771338938325363</v>
       </c>
       <c r="CS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT2" t="n">
         <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.02279059769537952</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>-0.1009084010489436</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.008899050490986753</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.006466887181315041</v>
+        <v>-0.0505573009692559</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0</v>
+        <v>0.1429577367649748</v>
       </c>
       <c r="DB2" t="n">
         <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.02148053138158813</v>
+        <v>-0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0.003809427650490368</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.01941910259234226</v>
+        <v>-0</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.007051797633843629</v>
+        <v>0.02421172013663057</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>-0.00237551426946999</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL2" t="n">
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.008319090087646325</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
         <v>-0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0.06023493764750941</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.003026710771505038</v>
+        <v>-0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.006579123872988228</v>
+        <v>0.06352984796198956</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>-0.06495198486194075</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1379,25 +1379,25 @@
         <v>-0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.01602901120078337</v>
+        <v>0</v>
       </c>
       <c r="DW2" t="n">
         <v>-0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>-0.09431166386667482</v>
       </c>
       <c r="DY2" t="n">
         <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.009914395335935817</v>
+        <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.006363889472483359</v>
+        <v>-0.05885453593151795</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>-0.071579273590266</v>
       </c>
       <c r="EC2" t="n">
         <v>0</v>
@@ -1406,106 +1406,106 @@
         <v>0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.0102601640596055</v>
+        <v>-0</v>
       </c>
       <c r="EF2" t="n">
         <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.05070591611249339</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.01059341114075849</v>
+        <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.01036616595545623</v>
+        <v>0.01317957276792493</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0.09612733040713692</v>
       </c>
       <c r="EL2" t="n">
         <v>-0</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.02815073750280282</v>
+        <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0</v>
+        <v>-0.1318889260856562</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.04035057200239969</v>
+        <v>-0</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.006678765329200658</v>
+        <v>-0.1039713851760118</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>0.2802586912962208</v>
       </c>
       <c r="EU2" t="n">
         <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.0234965723870428</v>
+        <v>-0</v>
       </c>
       <c r="EX2" t="n">
         <v>-0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0.08674395110402489</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.003907289266565027</v>
+        <v>-0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.003821650832000831</v>
+        <v>-0.06019112283326553</v>
       </c>
       <c r="FC2" t="n">
-        <v>0</v>
+        <v>0.1372527073863676</v>
       </c>
       <c r="FD2" t="n">
         <v>-0</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.0306713958153649</v>
+        <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>-0.07110558194667205</v>
       </c>
       <c r="FI2" t="n">
         <v>-0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.01898809817537227</v>
+        <v>-0</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.02835700129122808</v>
+        <v>-0.08672167883344459</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>-0.01037225460527621</v>
       </c>
       <c r="FM2" t="n">
         <v>-0</v>
@@ -1514,25 +1514,25 @@
         <v>-0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.03262316409834453</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0</v>
+        <v>-0.1489074493581763</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>-2.150007272131477e-05</v>
+        <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.002067708563302028</v>
+        <v>-0.09483386319285669</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0.01304593359675131</v>
       </c>
       <c r="FV2" t="n">
         <v>-0</v>
@@ -1541,34 +1541,34 @@
         <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.03692079287109807</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>-0.05873713370151784</v>
       </c>
       <c r="GA2" t="n">
         <v>-0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.02621440710594788</v>
+        <v>-0</v>
       </c>
       <c r="GC2" t="n">
         <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>-0.06879152164577088</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.02324329964896089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>-5.8373673341386e-11</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0.1235219561018443</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04141420356808065</v>
+        <v>-0.0288918517326234</v>
       </c>
       <c r="F3" t="n">
-        <v>0.140569057918102</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.372467647613939e-11</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>-0.006432349182565227</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.1190470626424984</v>
       </c>
       <c r="N3" t="n">
-        <v>0.008541538555859533</v>
+        <v>0.02969783707799712</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09910262871665175</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.00176899265627915</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1633,76 +1633,76 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>-0</v>
+        <v>-0.05378042251152168</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.07739313081290328</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.05086877942805829</v>
+        <v>-0.0145018666272192</v>
       </c>
       <c r="X3" t="n">
-        <v>0.04193438083015924</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.01104507992818133</v>
+        <v>-0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0</v>
+        <v>2.073084074340912e-11</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0.04017615726853676</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.04166811651749151</v>
+        <v>0.001055943520072611</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.00962937526643561</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>-1.630406794275446e-11</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>0.005640001977420554</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>0.05855191457481828</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0780454012683798</v>
+        <v>0.02511628336766595</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.02427603548119592</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.005323428862595589</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -1714,79 +1714,79 @@
         <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0</v>
+        <v>-0.1160166839997872</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>0.1212709722842446</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.01591585512308753</v>
+        <v>-0.1798194155884322</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.1584609943525432</v>
+        <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0.05833927533283479</v>
+        <v>-0</v>
       </c>
       <c r="BB3" t="n">
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0</v>
+        <v>-0.04115282254035441</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0.04643219650533725</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.01955171132022353</v>
+        <v>0.02052463504623743</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.03227843110642217</v>
+        <v>-0</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.00579212615652433</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="n">
         <v>-0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM3" t="n">
         <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>0</v>
+        <v>0.03635329161396462</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>-0.04375682789066451</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.0337668788318454</v>
+        <v>-0.07728520312478701</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0.05954944201016203</v>
+        <v>0</v>
       </c>
       <c r="BR3" t="n">
         <v>-0</v>
       </c>
       <c r="BS3" t="n">
-        <v>-0.01918049790194128</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1795,22 +1795,22 @@
         <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>0</v>
+        <v>-0.1102079956938756</v>
       </c>
       <c r="BX3" t="n">
-        <v>0</v>
+        <v>0.1358113981544033</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.06123398051930907</v>
+        <v>-0.1122761685369115</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.1313203662800788</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
         <v>-0</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0.04752547623115275</v>
+        <v>-0</v>
       </c>
       <c r="CC3" t="n">
         <v>0</v>
@@ -1819,133 +1819,133 @@
         <v>-0</v>
       </c>
       <c r="CE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF3" t="n">
-        <v>0</v>
+        <v>0.04631962902649762</v>
       </c>
       <c r="CG3" t="n">
-        <v>0</v>
+        <v>-0.06701920578215495</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.01292085218877672</v>
+        <v>0.002487429695050146</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0.05690570917154961</v>
+        <v>0</v>
       </c>
       <c r="CJ3" t="n">
         <v>0</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.0246548794424509</v>
+        <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
         <v>-0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0</v>
+        <v>0.01437968528448127</v>
       </c>
       <c r="CP3" t="n">
-        <v>0</v>
+        <v>-0.006029926737581152</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.04390207424933525</v>
+        <v>0.03853138675569742</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.03242848347961425</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
         <v>-0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.003061040591526491</v>
+        <v>0</v>
       </c>
       <c r="CU3" t="n">
         <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CX3" t="n">
-        <v>-0</v>
+        <v>0.02695538874796563</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0</v>
+        <v>-0.06323037374538891</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.009319424446689182</v>
+        <v>0.01047063575262586</v>
       </c>
       <c r="DA3" t="n">
-        <v>-0.06430306653809836</v>
+        <v>-0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.03204213720706322</v>
+        <v>-0</v>
       </c>
       <c r="DD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
         <v>0</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0</v>
+        <v>0.01021894140229481</v>
       </c>
       <c r="DH3" t="n">
-        <v>0</v>
+        <v>-0.04946571932143475</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.008435015329783723</v>
+        <v>0.004853306244189109</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0.02698616095760156</v>
+        <v>0</v>
       </c>
       <c r="DK3" t="n">
         <v>0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.006476800123851164</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO3" t="n">
         <v>0</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>0.01193365782982534</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0</v>
+        <v>-0.02559592789375077</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.006715872663838322</v>
+        <v>0.03832338995281433</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0.01260078451480382</v>
+        <v>-0</v>
       </c>
       <c r="DT3" t="n">
         <v>-0</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.05007349981026053</v>
+        <v>-0</v>
       </c>
       <c r="DV3" t="n">
         <v>-0</v>
@@ -1954,79 +1954,79 @@
         <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0</v>
+        <v>0.02444244805272475</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0</v>
+        <v>0.03949050971208064</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.02978498387815898</v>
+        <v>0.04698269686633406</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0.009587586257468854</v>
+        <v>-0</v>
       </c>
       <c r="EC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.03350742775255444</v>
+        <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0</v>
+        <v>0.05700244725237039</v>
       </c>
       <c r="EI3" t="n">
-        <v>0</v>
+        <v>-0.07624139975365592</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-0.04470429700567698</v>
+        <v>0.02173730222302824</v>
       </c>
       <c r="EK3" t="n">
-        <v>-0.1023171514398028</v>
+        <v>0</v>
       </c>
       <c r="EL3" t="n">
         <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>-0.015398540049529</v>
+        <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP3" t="n">
         <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0</v>
+        <v>0.05366081006835148</v>
       </c>
       <c r="ER3" t="n">
-        <v>0</v>
+        <v>-0.03904984431554241</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.01025133106059501</v>
+        <v>-0.0236817794721782</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0.03760457586254851</v>
+        <v>-0</v>
       </c>
       <c r="EU3" t="n">
         <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.03141060023272751</v>
+        <v>-0</v>
       </c>
       <c r="EW3" t="n">
         <v>0</v>
@@ -2035,79 +2035,79 @@
         <v>-0</v>
       </c>
       <c r="EY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0</v>
+        <v>0.0312854921682145</v>
       </c>
       <c r="FA3" t="n">
-        <v>0</v>
+        <v>-0.06311809081641902</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.003834865588120244</v>
+        <v>0.000651650140042561</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0.05760430847586133</v>
+        <v>0</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.02083603660790435</v>
+        <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>0</v>
+        <v>0.03471523494738323</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0</v>
+        <v>0.02737503072985418</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.03861930058623889</v>
+        <v>-0.02169671985007909</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0.0003860028104727591</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.04727566334199522</v>
+        <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0</v>
+        <v>0.01096864268908549</v>
       </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>0.005409502938653475</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.01489535340192413</v>
+        <v>-0.002200636814853804</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.01240189958289674</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.005918510677450644</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
         <v>-0</v>
@@ -2116,25 +2116,25 @@
         <v>0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GA3" t="n">
-        <v>0</v>
+        <v>0.02256164151164745</v>
       </c>
       <c r="GB3" t="n">
-        <v>-0</v>
+        <v>0.009197817359931762</v>
       </c>
       <c r="GC3" t="n">
         <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.01195059047681337</v>
+        <v>0</v>
       </c>
       <c r="GE3" t="n">
         <v>0</v>
       </c>
       <c r="GF3" t="n">
-        <v>-0.005895535052494932</v>
+        <v>-0</v>
       </c>
       <c r="GG3" t="n">
         <v>0</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>-0</v>
       </c>
       <c r="O4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>-0</v>
       </c>
       <c r="X4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>-0</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="n">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>-0</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>-0</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>-0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR4" t="n">
         <v>0</v>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>-0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA4" t="n">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>-0</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
         <v>0</v>
@@ -2427,7 +2427,7 @@
         <v>-0</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS4" t="n">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>-0</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>-0</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
         <v>0</v>
@@ -2562,7 +2562,7 @@
         <v>-0</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL4" t="n">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>-0</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU4" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
         <v>0</v>
@@ -2616,7 +2616,7 @@
         <v>-0</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD4" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI4" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>-0</v>
       </c>
       <c r="FL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM4" t="n">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.0865216154194231</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2723,25 +2723,25 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01727842174107171</v>
+        <v>-0.06692003231614591</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1856352551200829</v>
+        <v>-0.02875629290221898</v>
       </c>
       <c r="G5" t="n">
         <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.006960807168451067</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.0432549533352687</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -2750,43 +2750,43 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01138788673674964</v>
+        <v>-0.04723013596592543</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1430576266271128</v>
+        <v>-0.02069043240531885</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.420154030017197e-05</v>
+        <v>-0</v>
       </c>
       <c r="R5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.01804752275353059</v>
       </c>
       <c r="U5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.04328986035022545</v>
+        <v>-0.008615945888080182</v>
       </c>
       <c r="X5" t="n">
-        <v>0.06536430572210511</v>
+        <v>0.02498067717105192</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.01074262534238708</v>
+        <v>-0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -2795,25 +2795,25 @@
         <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>-0.008986587921596465</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
         <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.03243903843679166</v>
+        <v>-0.007672090963944738</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.02097056563479755</v>
+        <v>-0.008002822311013683</v>
       </c>
       <c r="AH5" t="n">
         <v>-0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01790761258698814</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.04276722926176894</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -2831,25 +2831,25 @@
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.002728208101374238</v>
+        <v>-0.007397985650772066</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.0241440253449314</v>
+        <v>-0.002497985774769037</v>
       </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0002438110647529869</v>
+        <v>-0</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.1269428971938504</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2858,16 +2858,16 @@
         <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.01761644528044648</v>
+        <v>-0.06326384189353827</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.1288074048330827</v>
+        <v>-0.04422284239234422</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.006512229801140215</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
         <v>0</v>
@@ -2876,61 +2876,61 @@
         <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.02976949100100432</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.01472364301930761</v>
+        <v>-0.05724960542710013</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.06363336581950503</v>
+        <v>-0.008593557159747217</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.01416552273625229</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.04449864124390693</v>
       </c>
       <c r="BN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
         <v>0</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.04460896228944912</v>
+        <v>0.01061836464040484</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0.06012166595796894</v>
+        <v>0.01686856008834947</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>-0.01795372276931499</v>
+        <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.05837189962540962</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
@@ -2939,25 +2939,25 @@
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.07657135388468303</v>
+        <v>-0.02809205269851037</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.1696740352048808</v>
+        <v>-0.005058889396433117</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.0070818922730133</v>
+        <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
         <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.02016523205699673</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
@@ -2966,52 +2966,52 @@
         <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.007252203394690631</v>
+        <v>0.01768927966900448</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0.05018526592208339</v>
+        <v>0.0160868632076541</v>
       </c>
       <c r="CJ5" t="n">
         <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.006461342556885537</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>0.008464848612403649</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.0003274970024603578</v>
+        <v>-0.003444944250281142</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.02972496527478998</v>
+        <v>-0.005144964457170661</v>
       </c>
       <c r="CS5" t="n">
         <v>-0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.008554178936207794</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
         <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.008500724997003706</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
@@ -3020,25 +3020,25 @@
         <v>-0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.01230827357470912</v>
+        <v>0.01431440322001988</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0.06207056933612765</v>
+        <v>0.02403452065468401</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.01755378994431795</v>
+        <v>-0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>0.01379199503545839</v>
       </c>
       <c r="DG5" t="n">
         <v>-0</v>
@@ -3047,16 +3047,16 @@
         <v>-0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.03401571428915292</v>
+        <v>0.0402431189041441</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.002261863889161714</v>
+        <v>0.008782646176267592</v>
       </c>
       <c r="DK5" t="n">
         <v>0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.01838151028322748</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
@@ -3065,7 +3065,7 @@
         <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.01565589696870085</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
@@ -3074,25 +3074,25 @@
         <v>-0</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.003855885691343077</v>
+        <v>0.02910626667383547</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.04254084316895084</v>
+        <v>-0.03707571895643469</v>
       </c>
       <c r="DT5" t="n">
         <v>-0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0.05370500568275333</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0</v>
+        <v>-0.0212144166455525</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
@@ -3101,52 +3101,52 @@
         <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.007610468624591804</v>
+        <v>-0.03257087521762704</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.02038765457706097</v>
+        <v>-0.008807449494598768</v>
       </c>
       <c r="EC5" t="n">
         <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>-0.03325578086212046</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>-0.003804885509893497</v>
       </c>
       <c r="EH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
         <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.0531418397716605</v>
+        <v>0.0008147869060856897</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0.09923056075268645</v>
+        <v>0.01119724810717862</v>
       </c>
       <c r="EL5" t="n">
         <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>-0.03706209425422453</v>
+        <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>0.01248363226861039</v>
       </c>
       <c r="EQ5" t="n">
         <v>-0</v>
@@ -3155,79 +3155,79 @@
         <v>0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.03263393672053862</v>
+        <v>0.007224120551593849</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0.05793874082277964</v>
+        <v>0.02239737085752631</v>
       </c>
       <c r="EU5" t="n">
         <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.03039036705531782</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
         <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.002700783991081407</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
         <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.01392941972346343</v>
+        <v>0.01215194106831204</v>
       </c>
       <c r="FC5" t="n">
-        <v>-0.05727573604827192</v>
+        <v>0.02490946291845604</v>
       </c>
       <c r="FD5" t="n">
         <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.01318696565114405</v>
+        <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG5" t="n">
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.03921171515845626</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
         <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.01462338506978937</v>
+        <v>-0.03753146945002031</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0.01840145936484476</v>
+        <v>0.001672153112948349</v>
       </c>
       <c r="FM5" t="n">
         <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.01954807252424077</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>-0</v>
+        <v>0.002549926538264363</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
@@ -3236,25 +3236,25 @@
         <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.001103633259470888</v>
+        <v>0.0007760932560016291</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.01351972486674559</v>
+        <v>0.02263304643341775</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.01816394310982795</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
         <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>-0</v>
+        <v>-0.01410530170105408</v>
       </c>
       <c r="GA5" t="n">
         <v>0</v>
@@ -3263,16 +3263,16 @@
         <v>-0</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.04873932466822119</v>
+        <v>-0.01215460077588423</v>
       </c>
       <c r="GE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0.03464398387608204</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
         <v>0</v>
@@ -3283,79 +3283,79 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1125318345780381</v>
+        <v>0.2991655407023802</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-0.1337146512228189</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002143361244841788</v>
+        <v>-0.02299709676626816</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2527034626180222</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06425300129105511</v>
+        <v>0.1839923436496692</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-0.08593101078037338</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0263239284178511</v>
+        <v>-0.06842174153140412</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2539231688183004</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.00717358901605006</v>
+        <v>0.117137780611458</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.02502427166676887</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08114534991593772</v>
+        <v>0.08246144596569417</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1902523322183055</v>
+        <v>-0</v>
       </c>
       <c r="Y6" t="n">
         <v>-0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -3364,25 +3364,25 @@
         <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.004567204335539646</v>
+        <v>-0.01436576256535797</v>
       </c>
       <c r="AD6" t="n">
         <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0</v>
+        <v>-0.005069757269862143</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.03852166730355942</v>
+        <v>-0.001987185075442475</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.021895890253602</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
         <v>-0</v>
@@ -3391,46 +3391,46 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.03834542161638647</v>
+        <v>0.05004790750357353</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>-0.05410458125643416</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.05030986647528135</v>
+        <v>-0.003514703508163365</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.07980596805890387</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
         <v>-0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1517832827836007</v>
+        <v>0.4541160972121623</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>-2.964295790191198e-05</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.1273675501927554</v>
+        <v>0.1840954729446385</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.09034409704579596</v>
+        <v>-0</v>
       </c>
       <c r="AZ6" t="n">
         <v>-0</v>
@@ -3439,85 +3439,85 @@
         <v>-0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.05507390901423357</v>
+        <v>-0.001903750711806942</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0</v>
+        <v>-0.1016204502870296</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.02093753987762019</v>
+        <v>-0.1775406041409951</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.09744503250775423</v>
+        <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.04279294266339943</v>
+        <v>0.02623590385762304</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>-0</v>
+        <v>0.09738002006287601</v>
       </c>
       <c r="BP6" t="n">
-        <v>-0.0848776739733008</v>
+        <v>0.04626640726310187</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0.1176235291143546</v>
+        <v>-0</v>
       </c>
       <c r="BR6" t="n">
         <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.08676932987214361</v>
+        <v>0.264421529765111</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0</v>
+        <v>-0.02664429736729506</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.06013437689633397</v>
+        <v>0.06780480379153342</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.1871913494455632</v>
+        <v>-0</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
         <v>0</v>
@@ -3526,52 +3526,52 @@
         <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.05055274799061148</v>
+        <v>-0.1001105262154275</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>0.03160734703885835</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.004478683693934591</v>
+        <v>-0.02830436892055884</v>
       </c>
       <c r="CI6" t="n">
-        <v>-0.06634565699367963</v>
+        <v>-0</v>
       </c>
       <c r="CJ6" t="n">
         <v>-0</v>
       </c>
       <c r="CK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL6" t="n">
         <v>-0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>-0.002886791293412797</v>
+        <v>-0.01737130702935192</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>0</v>
+        <v>-0.037384522195685</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.005072767153866124</v>
+        <v>-0.06689093543471411</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.06191101505320632</v>
+        <v>0</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU6" t="n">
         <v>0</v>
@@ -3580,19 +3580,19 @@
         <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.03168530212314737</v>
+        <v>-0.08431333925097757</v>
       </c>
       <c r="CX6" t="n">
         <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>0.04815831367184555</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.0008396011153176274</v>
+        <v>-0.02585486417813766</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0.06077833461256706</v>
+        <v>0</v>
       </c>
       <c r="DB6" t="n">
         <v>0</v>
@@ -3604,28 +3604,28 @@
         <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.001370792031449417</v>
+        <v>-0.03119238281215773</v>
       </c>
       <c r="DG6" t="n">
         <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0</v>
+        <v>0.01844449692145412</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.04477449667373435</v>
+        <v>0.01201402092322859</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.04890506748977497</v>
+        <v>0</v>
       </c>
       <c r="DK6" t="n">
         <v>-0</v>
       </c>
       <c r="DL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
@@ -3634,19 +3634,19 @@
         <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.001723900873588904</v>
+        <v>-0.05758240523988836</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0</v>
+        <v>-0.01154626393068806</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.01546996929679472</v>
+        <v>-0.05559416389747699</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.08257895956311244</v>
+        <v>0</v>
       </c>
       <c r="DT6" t="n">
         <v>-0</v>
@@ -3655,52 +3655,52 @@
         <v>-0</v>
       </c>
       <c r="DV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.01154415694628968</v>
+        <v>0.01951706208752055</v>
       </c>
       <c r="DY6" t="n">
         <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0</v>
+        <v>-0.0007021956513472662</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.01526570052631361</v>
+        <v>-0.04888902471596526</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.01486578583851814</v>
+        <v>0</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.09626932516562856</v>
+        <v>-0.05042778507558751</v>
       </c>
       <c r="EH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0</v>
+        <v>0.0500653182985264</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.09546978029438159</v>
+        <v>0.04048807480871891</v>
       </c>
       <c r="EK6" t="n">
-        <v>-0.09579592597100012</v>
+        <v>-0</v>
       </c>
       <c r="EL6" t="n">
         <v>-0</v>
@@ -3712,76 +3712,76 @@
         <v>-0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.003090186414294441</v>
+        <v>-0.09430482879500603</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>-0</v>
+        <v>0.05351609423228395</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.04053193347180588</v>
+        <v>-0.0238753540970365</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0.1346989890179227</v>
+        <v>-0</v>
       </c>
       <c r="EU6" t="n">
         <v>-0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
         <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.04612699339767169</v>
+        <v>-0.09455324442575354</v>
       </c>
       <c r="EZ6" t="n">
         <v>0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0</v>
+        <v>0.05833036685119738</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.003249435610078111</v>
+        <v>-0.03323222152922791</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0.0718066468682271</v>
+        <v>-0</v>
       </c>
       <c r="FD6" t="n">
         <v>-0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
         <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.0224841286757487</v>
+        <v>-0.02353997643231373</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0</v>
+        <v>0.08446340901551409</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.007761823805690717</v>
+        <v>-0.0596487194617159</v>
       </c>
       <c r="FL6" t="n">
-        <v>-0.03901977806611018</v>
+        <v>-0</v>
       </c>
       <c r="FM6" t="n">
         <v>0</v>
@@ -3790,58 +3790,58 @@
         <v>0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
         <v>-0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.03846584402739863</v>
+        <v>0.004116256421288877</v>
       </c>
       <c r="FR6" t="n">
         <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0</v>
+        <v>0.03614379511815959</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.002451529528487761</v>
+        <v>0.009029616755326443</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.001113061506296883</v>
+        <v>-0</v>
       </c>
       <c r="FV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX6" t="n">
         <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>-0.006086329622246185</v>
+        <v>-0.04575079795887849</v>
       </c>
       <c r="GA6" t="n">
         <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>-0.05253337324651499</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.06701003958282035</v>
+        <v>-0</v>
       </c>
       <c r="GE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
         <v>-0</v>
@@ -3852,25 +3852,25 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.2016200698600772</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.006372399306728729</v>
+        <v>-0.02828398123509208</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1765581279109377</v>
+        <v>-0.093476946654628</v>
       </c>
       <c r="G7" t="n">
         <v>-0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.02895616434884362</v>
+        <v>-0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -3879,160 +3879,160 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.1189449628169975</v>
       </c>
       <c r="L7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.009478436669935737</v>
+        <v>-0.01830794669355592</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1367171362918897</v>
+        <v>-0.09250080132163531</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.02294983485540157</v>
+        <v>-0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02824378604627632</v>
       </c>
       <c r="U7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.02647450137827396</v>
+        <v>-0.03894487306704671</v>
       </c>
       <c r="X7" t="n">
-        <v>0.06788050766054708</v>
+        <v>0.004610364034336885</v>
       </c>
       <c r="Y7" t="n">
         <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02408941203246486</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>3.691551441474009e-11</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
         <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01467487018668374</v>
+        <v>-0.00596454300311594</v>
       </c>
       <c r="AG7" t="n">
-        <v>-3.029506507992534e-11</v>
+        <v>0.001115614581753533</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0.007474746632173193</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0</v>
+        <v>0.02982804236953858</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.01291314563503666</v>
+        <v>-0.0236422119088574</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.02632388717175163</v>
+        <v>-0.04961560411197791</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.002170881639793931</v>
+        <v>-0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.2053924626296474</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
         <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>-0.05182486567515725</v>
+        <v>-0.04747174988189866</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.1115683348195991</v>
+        <v>-0.1405075345496391</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0.0386916481633509</v>
+        <v>-0</v>
       </c>
       <c r="BB7" t="n">
         <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.08181193603088736</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.001909668691053762</v>
+        <v>-0.0641620387399494</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.04260111084610665</v>
+        <v>-0.03965821041921416</v>
       </c>
       <c r="BI7" t="n">
         <v>-0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0.02524020023339975</v>
+        <v>0</v>
       </c>
       <c r="BK7" t="n">
         <v>-0</v>
@@ -4041,7 +4041,7 @@
         <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.08986911072471838</v>
       </c>
       <c r="BN7" t="n">
         <v>0</v>
@@ -4050,43 +4050,43 @@
         <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>-0.003120397607655111</v>
+        <v>0.03016374233478033</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-0.05092786318058634</v>
+        <v>0.01477799146924273</v>
       </c>
       <c r="BR7" t="n">
         <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>-0.01108171535900546</v>
+        <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.09397567839318288</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
         <v>0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.04072648896908838</v>
+        <v>-0.03407959780182785</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.1186629036218377</v>
+        <v>-0.0393768491070457</v>
       </c>
       <c r="CA7" t="n">
         <v>-0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0.003226069808865834</v>
+        <v>-0</v>
       </c>
       <c r="CC7" t="n">
         <v>0</v>
@@ -4095,52 +4095,52 @@
         <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>-0</v>
+        <v>-0.05113751954914008</v>
       </c>
       <c r="CF7" t="n">
         <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0001039637136804473</v>
+        <v>-0.009894896601931205</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0.04639673574973441</v>
+        <v>0.04531000315862903</v>
       </c>
       <c r="CJ7" t="n">
         <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.01970615079902214</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>0.002368845539271552</v>
       </c>
       <c r="CO7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP7" t="n">
         <v>0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.003541544885563068</v>
+        <v>0.0189845259326336</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.03190741238682944</v>
+        <v>-0.02421187464136875</v>
       </c>
       <c r="CS7" t="n">
         <v>-0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.01005070355498206</v>
+        <v>-0</v>
       </c>
       <c r="CU7" t="n">
         <v>0</v>
@@ -4149,52 +4149,52 @@
         <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>0</v>
+        <v>-0.03752185554144535</v>
       </c>
       <c r="CX7" t="n">
         <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.00229034755715585</v>
+        <v>-0.00695691234982505</v>
       </c>
       <c r="DA7" t="n">
-        <v>-0.04935996174423817</v>
+        <v>0.04544022101382912</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.02587068833825962</v>
+        <v>-0</v>
       </c>
       <c r="DD7" t="n">
         <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.02747934292126169</v>
       </c>
       <c r="DG7" t="n">
         <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.05973370687726418</v>
+        <v>0.03831161589383129</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0.007906381301830268</v>
+        <v>-0.0009125582400060809</v>
       </c>
       <c r="DK7" t="n">
         <v>0</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.00505074817854325</v>
+        <v>-0</v>
       </c>
       <c r="DM7" t="n">
         <v>0</v>
@@ -4203,25 +4203,25 @@
         <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.009429958771049804</v>
       </c>
       <c r="DP7" t="n">
         <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.006277183672604493</v>
+        <v>0.03099820871313516</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.02663509086905876</v>
+        <v>0.0073984208639212</v>
       </c>
       <c r="DT7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.02631618209406451</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
         <v>-0</v>
@@ -4230,7 +4230,7 @@
         <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>0.01863214377988351</v>
       </c>
       <c r="DY7" t="n">
         <v>0</v>
@@ -4239,25 +4239,25 @@
         <v>0</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.01725817937403291</v>
+        <v>-0.04050466720513071</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0.002757502886105397</v>
+        <v>-0.01457842066542181</v>
       </c>
       <c r="EC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED7" t="n">
-        <v>-0.003801630859625384</v>
+        <v>0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
         <v>-0</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0</v>
+        <v>-0.03140130190672209</v>
       </c>
       <c r="EH7" t="n">
         <v>0</v>
@@ -4266,43 +4266,43 @@
         <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.04060481458288315</v>
+        <v>0.00960368669802197</v>
       </c>
       <c r="EK7" t="n">
-        <v>-0.07884922478998108</v>
+        <v>0.02702853309662062</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>-0.005379349054974621</v>
+        <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.02375412959873717</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.03463824641239724</v>
+        <v>-0.03470050526115607</v>
       </c>
       <c r="ET7" t="n">
-        <v>-0.05371717717563505</v>
+        <v>0.04996702273157796</v>
       </c>
       <c r="EU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.02808639193877179</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
         <v>0</v>
@@ -4311,25 +4311,25 @@
         <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.03690741081945436</v>
       </c>
       <c r="EZ7" t="n">
         <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>-4.838111846144565e-05</v>
+        <v>-0.006069963984585531</v>
       </c>
       <c r="FC7" t="n">
-        <v>-0.0473310760275601</v>
+        <v>0.05002354839415199</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.0232045032569894</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
         <v>0</v>
@@ -4338,61 +4338,61 @@
         <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>-0.01820471162238919</v>
       </c>
       <c r="FI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
         <v>-0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.03071750637360331</v>
+        <v>-0.04635868609534036</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0.02512234155701203</v>
+        <v>0.03226432283862726</v>
       </c>
       <c r="FM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.01927400170811471</v>
+        <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>0.0004644577552183731</v>
       </c>
       <c r="FR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
         <v>0</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.000522727873736169</v>
+        <v>-0.0019883450550759</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.002017217531759259</v>
+        <v>0.04704722766647704</v>
       </c>
       <c r="FV7" t="n">
         <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.006670256090874226</v>
+        <v>-0</v>
       </c>
       <c r="FX7" t="n">
         <v>-0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.008989538139922041</v>
       </c>
       <c r="GA7" t="n">
         <v>-0</v>
@@ -4404,13 +4404,13 @@
         <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.05031914335966955</v>
+        <v>-0.03879068526105035</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0.03915170751869734</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
         <v>0</v>
@@ -4418,82 +4418,82 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1213948981023512</v>
+        <v>0.4276378345696668</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-0.1223507126640145</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.006484025630038575</v>
+        <v>-0.09274972772962621</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2900077824625885</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.06531854040946609</v>
+        <v>0.2374561594569027</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-0.08457008416748373</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002449999251047373</v>
+        <v>-0.08378973693320395</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2775482993691457</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.001036442485658777</v>
+        <v>0.1418384045500858</v>
       </c>
       <c r="U8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>-0.03322396377213294</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04276283664573965</v>
+        <v>0.03514293660941587</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1789459248325328</v>
+        <v>-0</v>
       </c>
       <c r="Y8" t="n">
         <v>-0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -4502,22 +4502,22 @@
         <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.003757664066981258</v>
+        <v>0.00841518427963764</v>
       </c>
       <c r="AD8" t="n">
         <v>-0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0.001170446524763154</v>
       </c>
       <c r="AF8" t="n">
-        <v>-9.286185158739823e-11</v>
+        <v>-4.810277588416745e-12</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.02045788489506128</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -4529,19 +4529,19 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0.0222900940384572</v>
+        <v>0.06935365403228896</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>-0.04402459861793503</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.07825941041034272</v>
+        <v>-0.04935057254580204</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.08380607875841196</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
         <v>-0</v>
@@ -4556,19 +4556,19 @@
         <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>-0.1494777750613208</v>
+        <v>0.4842103436601837</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>0.009205589998771548</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.09906462362637436</v>
+        <v>0.04444574416860191</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.06588184474377369</v>
+        <v>-0</v>
       </c>
       <c r="AZ8" t="n">
         <v>-0</v>
@@ -4580,25 +4580,25 @@
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>-0.08010653435903177</v>
+        <v>0.02832854691686902</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>-0.09531114137960292</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.05542724496477624</v>
+        <v>-0.1804283648762729</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.1628490197765209</v>
+        <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
@@ -4607,49 +4607,49 @@
         <v>0</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.03126361218055748</v>
+        <v>0.0596928543597742</v>
       </c>
       <c r="BN8" t="n">
         <v>-0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0.06595474396417451</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0.05587069666278531</v>
+        <v>0.09532891453456015</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0.1242494075340141</v>
+        <v>-0</v>
       </c>
       <c r="BR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>-0.0424373020697275</v>
+        <v>0.259235886799352</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0</v>
+        <v>0.004290063503488106</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.07612291263432848</v>
+        <v>0.01116483425854476</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.1883990351904782</v>
+        <v>-0</v>
       </c>
       <c r="CA8" t="n">
         <v>-0</v>
@@ -4658,25 +4658,25 @@
         <v>-0</v>
       </c>
       <c r="CC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD8" t="n">
         <v>-0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.04018303983487809</v>
+        <v>-0.1172551747268193</v>
       </c>
       <c r="CF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>0</v>
+        <v>0.01250850604259887</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.0179086111011726</v>
+        <v>-0.01210689147631779</v>
       </c>
       <c r="CI8" t="n">
-        <v>-0.05529685678601946</v>
+        <v>-0</v>
       </c>
       <c r="CJ8" t="n">
         <v>-0</v>
@@ -4688,25 +4688,25 @@
         <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.008930265996900702</v>
+        <v>0.004033865013187208</v>
       </c>
       <c r="CO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>0</v>
+        <v>-0.04528262262292292</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.002581001201262889</v>
+        <v>-0.05698896555797917</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.05252766202691462</v>
+        <v>0</v>
       </c>
       <c r="CS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT8" t="n">
         <v>-0</v>
@@ -4718,19 +4718,19 @@
         <v>0</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.02864892519320674</v>
+        <v>-0.1050262096880169</v>
       </c>
       <c r="CX8" t="n">
         <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>0</v>
+        <v>0.03592899918116428</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.007944755660260537</v>
+        <v>-0.02320402213778393</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0.06037087387736634</v>
+        <v>0</v>
       </c>
       <c r="DB8" t="n">
         <v>0</v>
@@ -4742,28 +4742,28 @@
         <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.01305854184265589</v>
+        <v>-0.04990052378956466</v>
       </c>
       <c r="DG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0.02493285043983889</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.05571272239274804</v>
+        <v>0.06153394930765179</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.06362024699851763</v>
+        <v>-0</v>
       </c>
       <c r="DK8" t="n">
         <v>-0</v>
       </c>
       <c r="DL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM8" t="n">
         <v>0</v>
@@ -4772,73 +4772,73 @@
         <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.01682548066186472</v>
+        <v>-0.05102214943547478</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0</v>
+        <v>0.04006774378769166</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.02244134709297763</v>
+        <v>-0.07186555698709439</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.08941158021951022</v>
+        <v>0</v>
       </c>
       <c r="DT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU8" t="n">
         <v>-0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0.01899858890160353</v>
+        <v>0.05357365311786155</v>
       </c>
       <c r="DY8" t="n">
         <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0</v>
+        <v>-0.002900978960051612</v>
       </c>
       <c r="EA8" t="n">
-        <v>-0.04520180749430502</v>
+        <v>-0.08653359274526179</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.003344113404578261</v>
+        <v>0</v>
       </c>
       <c r="EC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE8" t="n">
         <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.06284686787701757</v>
+        <v>-0.08424652573747646</v>
       </c>
       <c r="EH8" t="n">
         <v>-0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0.03615595301540348</v>
       </c>
       <c r="EJ8" t="n">
-        <v>-0.09694648498932235</v>
+        <v>0.03789917323532167</v>
       </c>
       <c r="EK8" t="n">
-        <v>-0.1071169274666602</v>
+        <v>-0</v>
       </c>
       <c r="EL8" t="n">
         <v>-0</v>
@@ -4853,46 +4853,46 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.0007160768850691025</v>
+        <v>-0.05925220005919641</v>
       </c>
       <c r="EQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0.02713279867202972</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.04472145951521667</v>
+        <v>-0.01901520248435236</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0.1300603989058441</v>
+        <v>-0</v>
       </c>
       <c r="EU8" t="n">
         <v>-0</v>
       </c>
       <c r="EV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW8" t="n">
         <v>-0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.0446931034971591</v>
+        <v>-0.1032670699923739</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0.02590303792982505</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.004820801723914152</v>
+        <v>-0.01086064591378052</v>
       </c>
       <c r="FC8" t="n">
-        <v>-0.06631641268082533</v>
+        <v>-0</v>
       </c>
       <c r="FD8" t="n">
         <v>-0</v>
@@ -4901,85 +4901,85 @@
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.06253695424903832</v>
+        <v>-0.03154296515638236</v>
       </c>
       <c r="FI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0.06129344796235976</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.01762748629524215</v>
+        <v>-0.03784809052241488</v>
       </c>
       <c r="FL8" t="n">
-        <v>-0.03943229191866364</v>
+        <v>-0</v>
       </c>
       <c r="FM8" t="n">
         <v>0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.07909447861377725</v>
+        <v>0.0003217106393567314</v>
       </c>
       <c r="FR8" t="n">
         <v>0</v>
       </c>
       <c r="FS8" t="n">
-        <v>0</v>
+        <v>0.04500084995298304</v>
       </c>
       <c r="FT8" t="n">
-        <v>-0.001089009274164512</v>
+        <v>-0.001612778113970357</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.0002775143349423342</v>
+        <v>-0</v>
       </c>
       <c r="FV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX8" t="n">
         <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>-0.05228567909716944</v>
+        <v>-0.002771957034404669</v>
       </c>
       <c r="GA8" t="n">
         <v>-0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0</v>
+        <v>-0.04754024118900892</v>
       </c>
       <c r="GC8" t="n">
         <v>-0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.07885275416625533</v>
+        <v>-0</v>
       </c>
       <c r="GE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG8" t="n">
         <v>-0</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.6978032179285124</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -4999,25 +4999,25 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004886009913189751</v>
+        <v>-0.09145286874785845</v>
       </c>
       <c r="F9" t="n">
-        <v>0.191301097389298</v>
+        <v>-0.5473317535429933</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.04895618585021922</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.4538211960776657</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -5026,43 +5026,43 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.03281286569345331</v>
+        <v>-0.0008296824976469492</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1524298022579618</v>
+        <v>-0.4862045562546478</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.05407732314225779</v>
+        <v>-0</v>
       </c>
       <c r="R9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1063009476826921</v>
       </c>
       <c r="U9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.03506077942902595</v>
+        <v>-0.1330875734042448</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0544258001405712</v>
+        <v>-0.02742007848276714</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.001725512477174901</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -5071,7 +5071,7 @@
         <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.02071549529852219</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5080,16 +5080,16 @@
         <v>-0</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.01186945834870379</v>
+        <v>-0.001666058039023525</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.01153412588217807</v>
+        <v>-0.003512144507694994</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.002664276751092255</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.1374966727345234</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
@@ -5107,25 +5107,25 @@
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.01008106926172472</v>
+        <v>0.07727660725570855</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.03031250479775158</v>
+        <v>-0.1423010454176762</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.009439433482086718</v>
+        <v>-0</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>0.6549866756384572</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
@@ -5134,52 +5134,52 @@
         <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.03407128551675539</v>
+        <v>-0.1651416492330452</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.08159247695813779</v>
+        <v>-0.5545232963115215</v>
       </c>
       <c r="AZ9" t="n">
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.01601444704029499</v>
+        <v>-0</v>
       </c>
       <c r="BB9" t="n">
         <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.2426433557524847</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.009188735445072755</v>
+        <v>-0.1176364376556842</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.06407319921654105</v>
+        <v>-0.1464355380560577</v>
       </c>
       <c r="BI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0.0635611906924429</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.1749275417453558</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
@@ -5188,43 +5188,43 @@
         <v>-0</v>
       </c>
       <c r="BP9" t="n">
-        <v>-0.005697920633663658</v>
+        <v>0.00764741736507042</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0.05154669992229019</v>
+        <v>-0.01870142755336184</v>
       </c>
       <c r="BR9" t="n">
         <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>-0.01728611968256233</v>
+        <v>0</v>
       </c>
       <c r="BT9" t="n">
         <v>0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>0.3474093759755273</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
         <v>0</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.04700122590801601</v>
+        <v>-0.1121487166549322</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.1362678239630405</v>
+        <v>-0.3410209577663225</v>
       </c>
       <c r="CA9" t="n">
         <v>-0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.0004580953861454701</v>
+        <v>-0</v>
       </c>
       <c r="CC9" t="n">
         <v>0</v>
@@ -5233,169 +5233,169 @@
         <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.1445299467474491</v>
       </c>
       <c r="CF9" t="n">
         <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.01157715559121305</v>
+        <v>-0.04502212445227508</v>
       </c>
       <c r="CI9" t="n">
-        <v>-0.04401364043161205</v>
+        <v>0.1499724780201077</v>
       </c>
       <c r="CJ9" t="n">
         <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.01093704200935425</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0.004856304560014615</v>
       </c>
       <c r="CO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP9" t="n">
         <v>0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.001005280989103301</v>
+        <v>0.01002676708294641</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.02265162061056162</v>
+        <v>-0.001905239557424849</v>
       </c>
       <c r="CS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>-0.004660103617256352</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.1282484693401537</v>
       </c>
       <c r="CX9" t="n">
         <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.00331038571979644</v>
+        <v>-0.03020735698959942</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0.0467426576183244</v>
+        <v>0.1661893890804487</v>
       </c>
       <c r="DB9" t="n">
         <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.01488559606050303</v>
+        <v>-0</v>
       </c>
       <c r="DD9" t="n">
         <v>-0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.01007562483497726</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
         <v>-0</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.03203716739549076</v>
+        <v>0.08731376121461579</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0.0016907947145962</v>
+        <v>-0.07081805182404902</v>
       </c>
       <c r="DK9" t="n">
         <v>0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.001891715237445698</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.01593281808761119</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.04164786047834161</v>
+        <v>-0.05756649719888268</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.04773390680946703</v>
+        <v>-0.0207653187582004</v>
       </c>
       <c r="DT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.02038543981410097</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
         <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>0.0152035387525668</v>
       </c>
       <c r="DY9" t="n">
         <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.01715816931957535</v>
+        <v>5.832767895188508e-05</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.01157572790873207</v>
+        <v>0.1060089535059511</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.0314563680282644</v>
+        <v>0</v>
       </c>
       <c r="EE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0</v>
+        <v>-0.1213068607654178</v>
       </c>
       <c r="EH9" t="n">
         <v>0</v>
@@ -5404,16 +5404,16 @@
         <v>-0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.04447760992880715</v>
+        <v>0.03331831273797501</v>
       </c>
       <c r="EK9" t="n">
-        <v>-0.07758552477602565</v>
+        <v>0.1988546160261594</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>-0.009657327784329706</v>
+        <v>0</v>
       </c>
       <c r="EN9" t="n">
         <v>0</v>
@@ -5422,52 +5422,52 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.03672570348177021</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.01983631794805701</v>
+        <v>-0.02389742029759002</v>
       </c>
       <c r="ET9" t="n">
-        <v>-0.0386844211929844</v>
+        <v>0.1114687156625804</v>
       </c>
       <c r="EU9" t="n">
         <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.01743021827328132</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
         <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.1064946187477862</v>
       </c>
       <c r="EZ9" t="n">
         <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.01023765542848883</v>
+        <v>-0.03472623908069158</v>
       </c>
       <c r="FC9" t="n">
-        <v>-0.05126597785514449</v>
+        <v>0.1325676786808672</v>
       </c>
       <c r="FD9" t="n">
         <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.01147563316145514</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
         <v>0</v>
@@ -5476,240 +5476,240 @@
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0.1269173624621555</v>
       </c>
       <c r="FI9" t="n">
         <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.0248054555418095</v>
+        <v>0.0001795176839315643</v>
       </c>
       <c r="FL9" t="n">
-        <v>-0.04377717675142385</v>
+        <v>-0.0561612210239878</v>
       </c>
       <c r="FM9" t="n">
         <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.02590506294307235</v>
+        <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
         <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>-0</v>
+        <v>-0.03258861221951262</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT9" t="n">
-        <v>-3.90085910122374e-06</v>
+        <v>0.0005416318334794538</v>
       </c>
       <c r="FU9" t="n">
-        <v>-0.006951187900290208</v>
+        <v>0.1001160441774091</v>
       </c>
       <c r="FV9" t="n">
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.001309108430551322</v>
+        <v>0</v>
       </c>
       <c r="FX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>0.05925516016867644</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC9" t="n">
         <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.04713708672023551</v>
+        <v>-0.04545495942012884</v>
       </c>
       <c r="GE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0.01596633520648193</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>-0.1597295101346946</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.7208607689634069</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2174639484986974</v>
+        <v>-0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02974939674377259</v>
+        <v>-0.1311540645967007</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2265681728142567</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>-0.1777040369215677</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.496761257991638</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.1971061979991665</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.06618061988980016</v>
+        <v>-0.1804447453147433</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2504091291967505</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.06416780642212311</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.2586550182507845</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.02121486983058361</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.17260867054135</v>
+        <v>-0.07038604805863656</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1980725068251923</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
         <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.02134732566723702</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0</v>
+        <v>0.05680650224994011</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.01098818048254314</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
         <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.1240555465256366</v>
+        <v>-0.02130214759116131</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.02875030979940957</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>-0.1175580452029755</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.2001080270932497</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.07866699442601126</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.1035811606443048</v>
+        <v>-0.02409936967436522</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.05732220304195897</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0</v>
+        <v>0.03476605464245076</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.7609134649152516</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0.1717245245503906</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.2119327907630535</v>
+        <v>0.2313744765656061</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.04003454745106554</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
         <v>-0</v>
@@ -5718,22 +5718,22 @@
         <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0</v>
+        <v>-0.0178545857258698</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0</v>
+        <v>0.06017383152495609</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0.0249044457378109</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.2126829839654424</v>
+        <v>-0.3686101299932615</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.09784673672143107</v>
+        <v>-0</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
@@ -5745,76 +5745,76 @@
         <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>0.0729114899759707</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.09749495498369305</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.02470375970262309</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.1486119169156098</v>
+        <v>0.179276692209445</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.02144614792313101</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0</v>
+        <v>0.05567897735306023</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.4999824174845359</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0.08154671038864252</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.1303350403196869</v>
+        <v>0.05620925953996862</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.2542722637541813</v>
+        <v>0</v>
       </c>
       <c r="CA10" t="n">
         <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC10" t="n">
         <v>0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0</v>
+        <v>0.02844948005932978</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.1444327768176717</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.06322620217861905</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.00504738038052089</v>
+        <v>-0.001024914879042613</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0.0523077100943048</v>
+        <v>0</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
@@ -5823,82 +5823,82 @@
         <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>-0.1472885986088425</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.03526952816535919</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0.0383440643087793</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
         <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.147833512184759</v>
+        <v>-0.0991616076550899</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.02540365739920317</v>
+        <v>-0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0.03194440099859026</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.1550081383786215</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.05270567055919922</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.06665863885636579</v>
+        <v>-0.002430681438214793</v>
       </c>
       <c r="DA10" t="n">
-        <v>-0.02025803528431456</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD10" t="n">
         <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>-0.05439731513231223</v>
       </c>
       <c r="DF10" t="n">
-        <v>-0</v>
+        <v>-0.2349729389476932</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.06252031284433994</v>
+        <v>-0</v>
       </c>
       <c r="DH10" t="n">
         <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.1063904882369178</v>
+        <v>0.06345698440861149</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.1487349293445573</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL10" t="n">
         <v>0</v>
@@ -5907,22 +5907,22 @@
         <v>-0</v>
       </c>
       <c r="DN10" t="n">
-        <v>-0</v>
+        <v>-0.01191079417127548</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0</v>
+        <v>-0.09272862965231134</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.01478293329972932</v>
+        <v>-0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.01590464387850051</v>
+        <v>-0.01348460346902835</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.05164318535403891</v>
+        <v>-0</v>
       </c>
       <c r="DT10" t="n">
         <v>0</v>
@@ -5931,25 +5931,25 @@
         <v>-0</v>
       </c>
       <c r="DV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>0</v>
+        <v>-0.009622393268151183</v>
       </c>
       <c r="DX10" t="n">
-        <v>0</v>
+        <v>-0.23093186616324</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0.04587671968729999</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
         <v>0</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.02007133754158397</v>
+        <v>-0.1627950241500002</v>
       </c>
       <c r="EB10" t="n">
-        <v>-0.06058805115040761</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
         <v>-0</v>
@@ -5961,25 +5961,25 @@
         <v>-0</v>
       </c>
       <c r="EF10" t="n">
-        <v>0</v>
+        <v>-0.008625547671476816</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0</v>
+        <v>-0.01442464024112438</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.07337743027661273</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
         <v>0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.07963937344819919</v>
+        <v>0.01235833763346941</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0.1167272718392763</v>
+        <v>0</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
         <v>-0</v>
@@ -5988,133 +5988,133 @@
         <v>-0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0</v>
+        <v>0.01588947982140381</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.09907510956287283</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0.008449339410990898</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
         <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.04552366843689273</v>
+        <v>-0.1107981985349412</v>
       </c>
       <c r="ET10" t="n">
-        <v>-0.1140123803905189</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
         <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0</v>
+        <v>0.02790737317017221</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.1468139214737703</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.06597405762323807</v>
+        <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>-0.02453684552110225</v>
+        <v>-0.03974007332914726</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0.02073668303884157</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0</v>
+        <v>0.0249180591828504</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>-0.04617949353482961</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.03317885903085706</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
         <v>-0</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.03103219022883022</v>
+        <v>-0.07078256356165689</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0.108130655732251</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
         <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0</v>
+        <v>0.0001972751179710252</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.08326758169622579</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.0004632545020759226</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
         <v>-0</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.003669023490765408</v>
+        <v>-0.03655735865324276</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0.02803607206637089</v>
+        <v>-0</v>
       </c>
       <c r="FV10" t="n">
         <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX10" t="n">
         <v>-0</v>
       </c>
       <c r="FY10" t="n">
-        <v>-0</v>
+        <v>-0.154137174692875</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.05163738555133192</v>
       </c>
       <c r="GA10" t="n">
-        <v>-0.06645707175769205</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.004953637395902472</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
         <v>-0</v>
@@ -6128,25 +6128,25 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.1496082658998431</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0338874677201983</v>
+        <v>-0.05050764279610264</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3206888018445908</v>
+        <v>-0.07783150167930862</v>
       </c>
       <c r="G11" t="n">
         <v>-0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.09556239197506025</v>
+        <v>-0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -6155,25 +6155,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.1084893438066814</v>
       </c>
       <c r="L11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.05961179081095929</v>
+        <v>-0.0206292743286881</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2334426636537128</v>
+        <v>-0.05058132542063425</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.06197675056903965</v>
+        <v>-0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -6182,25 +6182,25 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.02334656483461089</v>
       </c>
       <c r="U11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.06334425151980788</v>
+        <v>-0.01685320739660771</v>
       </c>
       <c r="X11" t="n">
-        <v>0.07640624421541219</v>
+        <v>-0.0005317449149046421</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.002729904933509016</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -6209,52 +6209,52 @@
         <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0</v>
+        <v>0.0008385756378535438</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
         <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.04437822176207316</v>
+        <v>0.006659123548114939</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.004213274276721658</v>
+        <v>0.003159968205281028</v>
       </c>
       <c r="AH11" t="n">
         <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.008932431757947341</v>
+        <v>-0</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0</v>
+        <v>0.02344061157875744</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.0498611413338001</v>
+        <v>0.002593447887551928</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.05853409361195363</v>
+        <v>-0.03903432690755655</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.03131436859607663</v>
+        <v>-0</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
@@ -6263,7 +6263,7 @@
         <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.1136875712437861</v>
       </c>
       <c r="AV11" t="n">
         <v>-0</v>
@@ -6272,43 +6272,43 @@
         <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.06507298121337202</v>
+        <v>-0.03927614719870123</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.186183110196438</v>
+        <v>-0.09202787207415655</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA11" t="n">
-        <v>-0.09159423486503891</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>0.03546575413379773</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.04991749733298728</v>
+        <v>-0.0357400211000821</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.0809872638410004</v>
+        <v>-0.02229286350805137</v>
       </c>
       <c r="BI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-0.05650319814538575</v>
+        <v>0</v>
       </c>
       <c r="BK11" t="n">
         <v>0</v>
@@ -6317,160 +6317,160 @@
         <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>0.02482467292587764</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>-0.01701826084416825</v>
+        <v>-0.002546648575107513</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0.03625592673891007</v>
+        <v>0.00642027549446862</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>-0.008708921300188775</v>
+        <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>0.06189139438839626</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
         <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.02704851003377836</v>
+        <v>-0.02653877200269847</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.1424524470853031</v>
+        <v>-0.02640025337916411</v>
       </c>
       <c r="CA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>-0.03634975814613033</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>-0</v>
+        <v>-0.0311781498043518</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.02603243967301348</v>
+        <v>0.001258627113071169</v>
       </c>
       <c r="CI11" t="n">
-        <v>-0.06409014968751842</v>
+        <v>0.02452932073712738</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.02413468079524734</v>
+        <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0</v>
+        <v>0.005738668127066465</v>
       </c>
       <c r="CO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.06138040159528432</v>
+        <v>-0.0005489756660519262</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.05242555762916589</v>
+        <v>-0.01799896468366113</v>
       </c>
       <c r="CS11" t="n">
         <v>-0</v>
       </c>
       <c r="CT11" t="n">
-        <v>-0.02185328584624767</v>
+        <v>-0</v>
       </c>
       <c r="CU11" t="n">
         <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0</v>
+        <v>-0.02854765388914949</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.03187493141989816</v>
+        <v>0.003458761725712044</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0.06948122177547049</v>
+        <v>0.03034752932369078</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.04356530871109176</v>
+        <v>-0</v>
       </c>
       <c r="DD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE11" t="n">
         <v>-0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>-0.02038873561903875</v>
       </c>
       <c r="DG11" t="n">
         <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.01499112071019043</v>
+        <v>0.04198357010656961</v>
       </c>
       <c r="DJ11" t="n">
-        <v>-0.03200096968352902</v>
+        <v>-0.0009766352999453886</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.0003586400496052262</v>
+        <v>0</v>
       </c>
       <c r="DM11" t="n">
         <v>0</v>
@@ -6479,7 +6479,7 @@
         <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>-0.00963550648505076</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
@@ -6488,208 +6488,208 @@
         <v>0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.04341384369842616</v>
+        <v>0.013568503397487</v>
       </c>
       <c r="DS11" t="n">
-        <v>-0.01531504249631939</v>
+        <v>0.000199566948178412</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.002287370915302081</v>
+        <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX11" t="n">
-        <v>-0</v>
+        <v>-0.02125698854071172</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
         <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.0009308955491870801</v>
+        <v>0.007038951875142824</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0.006518412836293656</v>
+        <v>0.008982954013516599</v>
       </c>
       <c r="EC11" t="n">
         <v>0</v>
       </c>
       <c r="ED11" t="n">
-        <v>-0.02548807250394998</v>
+        <v>0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>-0</v>
+        <v>-0.03249091348122058</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.02507467654622961</v>
+        <v>0.01244890074491323</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0.09295122168304162</v>
+        <v>0.03448664767752143</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>-0.005375508325650654</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>-0</v>
+        <v>-0.01780821487346118</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.0267598449041001</v>
+        <v>-0.0009834098558741153</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0.02667768874988594</v>
+        <v>0.009587972805082567</v>
       </c>
       <c r="EU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV11" t="n">
-        <v>-0.08305375713053736</v>
+        <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>-0</v>
+        <v>-0.02666139601646762</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.02592999054184733</v>
+        <v>0.003533873754926275</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0.06124734898056857</v>
+        <v>0.02634767334706528</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.04303260337108211</v>
+        <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0</v>
+        <v>-0.001280893963123695</v>
       </c>
       <c r="FI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.007656550150529604</v>
+        <v>0.01007008216087361</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.0225208499171393</v>
+        <v>0.03176563858496266</v>
       </c>
       <c r="FM11" t="n">
         <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.04627715050297604</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
         <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>-0</v>
+        <v>-0.00281222217637857</v>
       </c>
       <c r="FR11" t="n">
         <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.01515915973843613</v>
+        <v>0.01125035671199754</v>
       </c>
       <c r="FU11" t="n">
-        <v>-0.0464066705593565</v>
+        <v>0.01700353811588047</v>
       </c>
       <c r="FV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.05180069033681766</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>-0</v>
+        <v>0.004676091419725967</v>
       </c>
       <c r="GA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC11" t="n">
         <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.05163680856735771</v>
+        <v>-0.01839851382954323</v>
       </c>
       <c r="GE11" t="n">
         <v>-0</v>
       </c>
       <c r="GF11" t="n">
-        <v>-0.00637934924241472</v>
+        <v>-0</v>
       </c>
       <c r="GG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -6697,25 +6697,25 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.1020841332879855</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0138201742772365</v>
+        <v>-0.08402052929767165</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2253488949800545</v>
+        <v>-0.0169935866552945</v>
       </c>
       <c r="G12" t="n">
         <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.06821181531230208</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -6724,25 +6724,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.06421677013463198</v>
       </c>
       <c r="L12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>-0</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.01842069424715296</v>
+        <v>-0.05771565482580825</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1599448223490614</v>
+        <v>-0.01306626349716746</v>
       </c>
       <c r="P12" t="n">
         <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.03822748831856334</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -6751,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.02156141023026783</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -6760,25 +6760,25 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.05042660970293834</v>
+        <v>-0.008322170071173819</v>
       </c>
       <c r="X12" t="n">
-        <v>0.05637113043369697</v>
+        <v>0.01045900277248337</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.009402794669980096</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.003494791878018157</v>
       </c>
       <c r="AD12" t="n">
         <v>-0</v>
@@ -6787,52 +6787,52 @@
         <v>-0</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.03785521518869714</v>
+        <v>0.003611691802032547</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.008172550707110773</v>
+        <v>0.003468238058667024</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.007790338786919965</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.01693600797579485</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
         <v>-0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0217373286001041</v>
+        <v>-0.01312647997872498</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.0401233526791282</v>
+        <v>-0.01509425824321281</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.0177137419565046</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.09172262013028937</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
@@ -6841,43 +6841,43 @@
         <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.06582013588508612</v>
+        <v>-0.04856937190885982</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.1510486832965272</v>
+        <v>-0.0144052958861114</v>
       </c>
       <c r="AZ12" t="n">
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.05671512881503499</v>
+        <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.0195207084017245</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.01105465523115427</v>
+        <v>-0.05422323863266254</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.0523718707749393</v>
+        <v>-0.01060783340913262</v>
       </c>
       <c r="BI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.05115216210066239</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
@@ -6886,7 +6886,7 @@
         <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.02513539238880621</v>
       </c>
       <c r="BN12" t="n">
         <v>0</v>
@@ -6895,25 +6895,25 @@
         <v>0</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.02078444234896383</v>
+        <v>0.01462339514021655</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-0.01217683278238603</v>
+        <v>0.0153860614232823</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>-0.03529877977709684</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.04914350702308985</v>
       </c>
       <c r="BW12" t="n">
         <v>0</v>
@@ -6922,124 +6922,124 @@
         <v>0</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.03097917478023558</v>
+        <v>-0.02666337425894548</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.08336298619908132</v>
+        <v>0.002590875586360009</v>
       </c>
       <c r="CA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.02656018550791412</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.01814226709795432</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.009452064959973255</v>
+        <v>0.01381361616338777</v>
       </c>
       <c r="CI12" t="n">
-        <v>-0.04395085127602142</v>
+        <v>0.006292756465611227</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.01799405545713126</v>
+        <v>-0</v>
       </c>
       <c r="CL12" t="n">
         <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>0.0003910181451737072</v>
       </c>
       <c r="CO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.05538947523423985</v>
+        <v>-0.002831175779817538</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.02460698173767636</v>
+        <v>-0.007262926825804069</v>
       </c>
       <c r="CS12" t="n">
         <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>-0.01653629826735518</v>
+        <v>0</v>
       </c>
       <c r="CU12" t="n">
         <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.01279802266547996</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.009194014219408455</v>
+        <v>0.0122677994742888</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0.0405628488863071</v>
+        <v>0.01174170143216478</v>
       </c>
       <c r="DB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.02812668366742638</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
         <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>-0</v>
+        <v>-0.01421292064359185</v>
       </c>
       <c r="DG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.003802659336953624</v>
+        <v>0.0181035049481498</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0.02093570379580017</v>
+        <v>-0.00294719262654576</v>
       </c>
       <c r="DK12" t="n">
         <v>0</v>
       </c>
       <c r="DL12" t="n">
-        <v>7.76768000602719e-05</v>
+        <v>-0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.004275381857019834</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
@@ -7057,228 +7057,228 @@
         <v>0</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.02576206022066794</v>
+        <v>0.02153534443819882</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.004710952762545804</v>
+        <v>-0.009109462437326936</v>
       </c>
       <c r="DT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU12" t="n">
-        <v>-0.006560475251922227</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW12" t="n">
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.01956926762507731</v>
       </c>
       <c r="DY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ12" t="n">
         <v>-0</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.003144644069069286</v>
+        <v>0.01936645685144719</v>
       </c>
       <c r="EB12" t="n">
-        <v>-0.001733322251132839</v>
+        <v>-0.004632107804889072</v>
       </c>
       <c r="EC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.002148524225746621</v>
+        <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0</v>
+        <v>-0.02045058312696749</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
         <v>0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.03344247302396454</v>
+        <v>0.01249634226870981</v>
       </c>
       <c r="EK12" t="n">
-        <v>-0.04095502682071057</v>
+        <v>0.009048908578283589</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.007823830637755099</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
         <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.002809502266768191</v>
       </c>
       <c r="EQ12" t="n">
         <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.02580309053848147</v>
+        <v>0.006389502698110698</v>
       </c>
       <c r="ET12" t="n">
-        <v>-0.02247504328997939</v>
+        <v>-0.004764912773717733</v>
       </c>
       <c r="EU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.01989349816022993</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.01221428599050072</v>
       </c>
       <c r="EZ12" t="n">
         <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.00640898351746917</v>
+        <v>0.01293285921557576</v>
       </c>
       <c r="FC12" t="n">
-        <v>-0.04007855777201047</v>
+        <v>0.01223946426423255</v>
       </c>
       <c r="FD12" t="n">
         <v>0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.02659667539949532</v>
+        <v>-0</v>
       </c>
       <c r="FF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG12" t="n">
         <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>-0.00403781842391285</v>
       </c>
       <c r="FI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.0155147223938981</v>
+        <v>0.01522466675568582</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.040752615225498</v>
+        <v>0.01344791572013587</v>
       </c>
       <c r="FM12" t="n">
         <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.02941562043895515</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
         <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.002808898544490414</v>
       </c>
       <c r="FR12" t="n">
         <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.01684332479055892</v>
+        <v>0.00750255434764861</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0.02473241401745802</v>
+        <v>0.008923002870434887</v>
       </c>
       <c r="FV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.02643080610869326</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>-0.005217629771249037</v>
       </c>
       <c r="GA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB12" t="n">
         <v>-0</v>
       </c>
       <c r="GC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.0599135140839203</v>
+        <v>-0.008427603097652331</v>
       </c>
       <c r="GE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF12" t="n">
-        <v>-0.005418395008411455</v>
+        <v>-0</v>
       </c>
       <c r="GG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1612949710211655</v>
+        <v>0.3908482284799203</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>-0.1415305532121398</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05609052758404118</v>
+        <v>-0.03734246700600252</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4509530237786381</v>
+        <v>-0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -7287,52 +7287,52 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.151452965212083</v>
+        <v>0.2684824886632711</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0</v>
+        <v>-0.1467026088088991</v>
       </c>
       <c r="N13" t="n">
-        <v>0.03971756699276699</v>
+        <v>-0.05606121135248502</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4135904760018548</v>
+        <v>-0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.00744576105505251</v>
+        <v>0.1025781878612301</v>
       </c>
       <c r="U13" t="n">
         <v>-0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.005887372055981032</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.02399737468559223</v>
+        <v>0.1023360302370037</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1335707192585745</v>
+        <v>-0</v>
       </c>
       <c r="Y13" t="n">
         <v>-0</v>
@@ -7341,82 +7341,82 @@
         <v>-0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.02497874417445932</v>
+        <v>0.1019684851844056</v>
       </c>
       <c r="AD13" t="n">
         <v>-0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0</v>
+        <v>-0.01040495651815334</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.0920982140332534</v>
+        <v>-0.003349430925435355</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.09656443959443148</v>
+        <v>-0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.04744789386714006</v>
+        <v>-0.01435144831739498</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>-0.07636656378673791</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.04045903141061942</v>
+        <v>-0.08922455505332197</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.1161202011425391</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
         <v>-0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.204045448954151</v>
+        <v>0.3359384194582907</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>-0.07319756489617422</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.06970710077483695</v>
+        <v>0.1419134082802872</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.1601726807847607</v>
+        <v>-0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA13" t="n">
         <v>-0</v>
@@ -7428,19 +7428,19 @@
         <v>-0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.05492050877622627</v>
+        <v>0.02797713467093448</v>
       </c>
       <c r="BE13" t="n">
         <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0</v>
+        <v>-0.05805134466920195</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.04481042136181918</v>
+        <v>-0.1169422629402479</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.1783925181033978</v>
+        <v>0</v>
       </c>
       <c r="BI13" t="n">
         <v>0</v>
@@ -7449,79 +7449,79 @@
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
         <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.02196996210266146</v>
+        <v>0.05694798247597166</v>
       </c>
       <c r="BN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0</v>
+        <v>0.05899851120585817</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.06605184504436597</v>
+        <v>0.1979007751952771</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0.08437790288122793</v>
+        <v>-0</v>
       </c>
       <c r="BR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0.07309142129312232</v>
+        <v>0.1604826507973125</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0</v>
+        <v>0.01855643253586027</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.01466439315560116</v>
+        <v>0.09865811961175174</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.2259272194852558</v>
+        <v>0</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
         <v>-0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.058562482240475</v>
+        <v>-0.08985607678154689</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>0.02646568059917847</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.004539089435617425</v>
+        <v>-0.01216717102087097</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0.07460932703166376</v>
+        <v>0</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
@@ -7533,79 +7533,79 @@
         <v>-0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.02790837342028435</v>
+        <v>-0.02373886836111925</v>
       </c>
       <c r="CO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0</v>
+        <v>-0.06123675580626253</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.05533516456490115</v>
+        <v>-0.1073901702012416</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.04391941983726962</v>
+        <v>0</v>
       </c>
       <c r="CS13" t="n">
         <v>0</v>
       </c>
       <c r="CT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU13" t="n">
         <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.05175877893035567</v>
+        <v>-0.08553426522495343</v>
       </c>
       <c r="CX13" t="n">
         <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0</v>
+        <v>0.04541795342960152</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.002885892501530479</v>
+        <v>-0.004737652662853742</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0.07745027320800579</v>
+        <v>-0</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD13" t="n">
         <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.03016194050987146</v>
+        <v>-0.01167532022366577</v>
       </c>
       <c r="DG13" t="n">
         <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>-0</v>
+        <v>0.00522976608010529</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.03310960526271203</v>
+        <v>-0.008584961919464862</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.04974234284193024</v>
+        <v>-0</v>
       </c>
       <c r="DK13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL13" t="n">
         <v>0</v>
@@ -7617,19 +7617,19 @@
         <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0.01544133928401128</v>
+        <v>-0.006211831031062068</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0</v>
+        <v>-0.1762713406829348</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.0314722077779224</v>
+        <v>-0.04817659476881336</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.07492064287147787</v>
+        <v>-0</v>
       </c>
       <c r="DT13" t="n">
         <v>-0</v>
@@ -7641,25 +7641,25 @@
         <v>-0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.03846494625827555</v>
+        <v>-0.06411067244608598</v>
       </c>
       <c r="DY13" t="n">
         <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0</v>
+        <v>0.009830828483425074</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.02618515940428305</v>
+        <v>0.03959695257008852</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0.04042392613014199</v>
+        <v>0</v>
       </c>
       <c r="EC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
         <v>-0</v>
@@ -7668,25 +7668,25 @@
         <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.0653691095890739</v>
+        <v>-0.1085980045543459</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0</v>
+        <v>0.08250780357661347</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.1109070702676686</v>
+        <v>0.07410638221299015</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0.1028627046853796</v>
+        <v>0</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
         <v>-0</v>
@@ -7695,106 +7695,106 @@
         <v>-0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.0173058816038275</v>
+        <v>-0.09174763403608648</v>
       </c>
       <c r="EQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>-0</v>
+        <v>0.08213835254051061</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.02218701880197717</v>
+        <v>0.01346117157503463</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0.1206516875719184</v>
+        <v>0</v>
       </c>
       <c r="EU13" t="n">
         <v>-0</v>
       </c>
       <c r="EV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.05911170213531729</v>
+        <v>-0.08093175669359416</v>
       </c>
       <c r="EZ13" t="n">
         <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>-0</v>
+        <v>0.0301811700528325</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.005664090993087248</v>
+        <v>-0.002043848056553023</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0.08498764211912284</v>
+        <v>0</v>
       </c>
       <c r="FD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF13" t="n">
         <v>-0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0.02594604442251834</v>
+        <v>-0.03017341466913788</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0</v>
+        <v>-0.08295084516729991</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.08141417606003364</v>
+        <v>0.03856790091758881</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.040149349858441</v>
+        <v>-0</v>
       </c>
       <c r="FM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN13" t="n">
         <v>0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
         <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.04950927745528095</v>
+        <v>-0.01315159667940698</v>
       </c>
       <c r="FR13" t="n">
         <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0</v>
+        <v>0.1149543109851126</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.03493117693428076</v>
+        <v>-0.005635113998638619</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0.03580859850327797</v>
+        <v>-0</v>
       </c>
       <c r="FV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW13" t="n">
         <v>-0</v>
@@ -7803,28 +7803,28 @@
         <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>-0.03688977036866088</v>
+        <v>0.0118155659803467</v>
       </c>
       <c r="GA13" t="n">
         <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0</v>
+        <v>-0.06156492650544612</v>
       </c>
       <c r="GC13" t="n">
         <v>-0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.09757323402257702</v>
+        <v>-0</v>
       </c>
       <c r="GE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
         <v>-0</v>
@@ -7835,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -7847,7 +7847,7 @@
         <v>-0</v>
       </c>
       <c r="F14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -7862,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -7874,7 +7874,7 @@
         <v>-0</v>
       </c>
       <c r="O14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -7889,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -7901,7 +7901,7 @@
         <v>-0</v>
       </c>
       <c r="X14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -7928,7 +7928,7 @@
         <v>-0</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -7955,7 +7955,7 @@
         <v>-0</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
         <v>0</v>
@@ -7970,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
@@ -7982,7 +7982,7 @@
         <v>-0</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ14" t="n">
         <v>0</v>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
@@ -8009,7 +8009,7 @@
         <v>-0</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
         <v>0</v>
@@ -8024,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
@@ -8036,7 +8036,7 @@
         <v>-0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR14" t="n">
         <v>0</v>
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
@@ -8063,7 +8063,7 @@
         <v>-0</v>
       </c>
       <c r="BZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA14" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
@@ -8090,7 +8090,7 @@
         <v>-0</v>
       </c>
       <c r="CI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ14" t="n">
         <v>0</v>
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO14" t="n">
         <v>0</v>
@@ -8117,7 +8117,7 @@
         <v>-0</v>
       </c>
       <c r="CR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS14" t="n">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>-0</v>
       </c>
       <c r="DJ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK14" t="n">
         <v>0</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
@@ -8198,7 +8198,7 @@
         <v>-0</v>
       </c>
       <c r="DS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT14" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
@@ -8225,7 +8225,7 @@
         <v>-0</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
         <v>0</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>-0</v>
       </c>
       <c r="EK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL14" t="n">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
         <v>0</v>
@@ -8279,7 +8279,7 @@
         <v>-0</v>
       </c>
       <c r="ET14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU14" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>-0</v>
       </c>
       <c r="FC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD14" t="n">
         <v>0</v>
@@ -8348,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR14" t="n">
         <v>0</v>
@@ -8360,7 +8360,7 @@
         <v>-0</v>
       </c>
       <c r="FU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV14" t="n">
         <v>0</v>
@@ -8404,25 +8404,25 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.2146974991055687</v>
       </c>
       <c r="C15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.02064533146475718</v>
+        <v>-0.06166249570091765</v>
       </c>
       <c r="F15" t="n">
-        <v>0.356384478129375</v>
+        <v>-0.1372065465011049</v>
       </c>
       <c r="G15" t="n">
         <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.1430744592112196</v>
+        <v>-0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -8431,34 +8431,34 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.1651538173850599</v>
       </c>
       <c r="L15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.02766607794983061</v>
+        <v>-0.03101471768801332</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2791294284789461</v>
+        <v>-0.1097344187097961</v>
       </c>
       <c r="P15" t="n">
         <v>-0</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08740446563900725</v>
+        <v>-0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>0.02379762877177963</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -8467,43 +8467,43 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.03497180065335692</v>
+        <v>-0.01635128109844269</v>
       </c>
       <c r="X15" t="n">
-        <v>0.07579207995408699</v>
+        <v>-0.004275735685908793</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0009221592752163766</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0</v>
+        <v>0.006215450076922325</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE15" t="n">
         <v>-0</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.09117559758706843</v>
+        <v>0.01330545012385246</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.03510577394820271</v>
+        <v>-7.992590638328244e-05</v>
       </c>
       <c r="AH15" t="n">
         <v>-0</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.03921435599750431</v>
+        <v>-0</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0</v>
+        <v>0.03052688726185477</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -8521,70 +8521,70 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.02553103688420738</v>
+        <v>0.00331143344402303</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.04895563433005196</v>
+        <v>-0.03842386836336169</v>
       </c>
       <c r="AQ15" t="n">
         <v>-0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.001812732122548538</v>
+        <v>-0</v>
       </c>
       <c r="AS15" t="n">
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.1481128656561646</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW15" t="n">
         <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.07310478902500731</v>
+        <v>-0.02382546226205735</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.1642527051991816</v>
+        <v>-0.07844487785598281</v>
       </c>
       <c r="AZ15" t="n">
         <v>-0</v>
       </c>
       <c r="BA15" t="n">
-        <v>-0.05259481430637494</v>
+        <v>-0</v>
       </c>
       <c r="BB15" t="n">
         <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0</v>
+        <v>0.04047987357956814</v>
       </c>
       <c r="BE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.03575249673058919</v>
+        <v>-0.0547000783482053</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.0708287953120377</v>
+        <v>-0.0534923858599631</v>
       </c>
       <c r="BI15" t="n">
         <v>-0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>-0.1065715741371114</v>
+        <v>0</v>
       </c>
       <c r="BK15" t="n">
         <v>-0</v>
@@ -8593,34 +8593,34 @@
         <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>0.03926529050770443</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP15" t="n">
-        <v>-0.02964595489778803</v>
+        <v>0.0005786439610635845</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0.02694563381694463</v>
+        <v>0.0195468211318834</v>
       </c>
       <c r="BR15" t="n">
         <v>-0</v>
       </c>
       <c r="BS15" t="n">
-        <v>-0.0315738362856457</v>
+        <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>0.07153860270920621</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -8629,16 +8629,16 @@
         <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>-0.02133101759007725</v>
+        <v>-0.02562032553457219</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.1257240225017078</v>
+        <v>-0.0493928857213525</v>
       </c>
       <c r="CA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB15" t="n">
-        <v>-0.05500188522496493</v>
+        <v>-0</v>
       </c>
       <c r="CC15" t="n">
         <v>0</v>
@@ -8647,106 +8647,106 @@
         <v>-0</v>
       </c>
       <c r="CE15" t="n">
-        <v>-0</v>
+        <v>-0.03638933104603533</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.0082354291274778</v>
+        <v>-0.003425098364924364</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0.06179102161316346</v>
+        <v>0.03078446949301888</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.03021205128532013</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>-0</v>
+        <v>0.006472712784301688</v>
       </c>
       <c r="CO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP15" t="n">
         <v>0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.07658325650254597</v>
+        <v>-0.005258313761749181</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.06147198354808257</v>
+        <v>-0.01446408998899489</v>
       </c>
       <c r="CS15" t="n">
         <v>-0</v>
       </c>
       <c r="CT15" t="n">
-        <v>-0.007192352341517469</v>
+        <v>-0</v>
       </c>
       <c r="CU15" t="n">
         <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>0</v>
+        <v>-0.027784736787574</v>
       </c>
       <c r="CX15" t="n">
         <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.01485348296351839</v>
+        <v>-0.005347740411477608</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0.05895156571085271</v>
+        <v>0.03427269020423423</v>
       </c>
       <c r="DB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.04481203800939421</v>
+        <v>-0</v>
       </c>
       <c r="DD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0.01034246398226128</v>
       </c>
       <c r="DG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH15" t="n">
         <v>-0</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.004073568260034976</v>
+        <v>0.02967893283345814</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.003139937562488594</v>
+        <v>0.001847564716961329</v>
       </c>
       <c r="DK15" t="n">
         <v>0</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.0005237004606604341</v>
+        <v>0</v>
       </c>
       <c r="DM15" t="n">
         <v>0</v>
@@ -8755,7 +8755,7 @@
         <v>-0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0.005260052249227066</v>
       </c>
       <c r="DP15" t="n">
         <v>0</v>
@@ -8764,25 +8764,25 @@
         <v>0</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.02939952219550019</v>
+        <v>0.02408550440186001</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0.0005492161897858783</v>
+        <v>-0.0002697735698777041</v>
       </c>
       <c r="DT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.01660189013168559</v>
+        <v>0</v>
       </c>
       <c r="DV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>-0.0204188512343726</v>
       </c>
       <c r="DY15" t="n">
         <v>0</v>
@@ -8791,25 +8791,25 @@
         <v>-0</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.02811520679852117</v>
+        <v>-0.008115893331866209</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.007602371299559355</v>
+        <v>0.02432746877151867</v>
       </c>
       <c r="EC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.01151231767462516</v>
+        <v>0</v>
       </c>
       <c r="EE15" t="n">
         <v>-0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>-0</v>
+        <v>-0.03967894479605003</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
@@ -8818,133 +8818,133 @@
         <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>-0.04595787813608118</v>
+        <v>0.01010139768537819</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0.05542943045066455</v>
+        <v>0.03197284549126673</v>
       </c>
       <c r="EL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.02113476797501864</v>
+        <v>-0</v>
       </c>
       <c r="EN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO15" t="n">
         <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>-0</v>
+        <v>-0.01394165763703744</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.06315189216924788</v>
+        <v>-0.01371775719449716</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0.05395761271116618</v>
+        <v>0.01457573055335869</v>
       </c>
       <c r="EU15" t="n">
         <v>-0</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.01400791448575659</v>
+        <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>-0</v>
+        <v>-0.02647403098958084</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.01283206014405714</v>
+        <v>-0.004349198245360052</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0.05995508401917651</v>
+        <v>0.03124462316982133</v>
       </c>
       <c r="FD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.0440252864502353</v>
+        <v>0</v>
       </c>
       <c r="FF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>-0</v>
+        <v>0.0008561665074462474</v>
       </c>
       <c r="FI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0.0129121653813368</v>
+        <v>0.003133390353812409</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.05434123466841468</v>
+        <v>-0.02123038162692813</v>
       </c>
       <c r="FM15" t="n">
         <v>0</v>
       </c>
       <c r="FN15" t="n">
-        <v>-0.0470431282352406</v>
+        <v>-0</v>
       </c>
       <c r="FO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP15" t="n">
         <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0</v>
+        <v>-0.006582759523880407</v>
       </c>
       <c r="FR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.01964516638768702</v>
+        <v>0.003925724811692122</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0.05946209442815742</v>
+        <v>0.04553411504432513</v>
       </c>
       <c r="FV15" t="n">
         <v>-0</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.07234106097753053</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>-0</v>
+        <v>0.02114471914552674</v>
       </c>
       <c r="GA15" t="n">
         <v>-0</v>
@@ -8953,16 +8953,16 @@
         <v>-0</v>
       </c>
       <c r="GC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.07907209610702064</v>
+        <v>-0.01705513389702289</v>
       </c>
       <c r="GE15" t="n">
         <v>-0</v>
       </c>
       <c r="GF15" t="n">
-        <v>-0.006318968166901379</v>
+        <v>-0</v>
       </c>
       <c r="GG15" t="n">
         <v>-0</v>
@@ -8973,13 +8973,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E16" t="n">
         <v>-0</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N16" t="n">
         <v>-0</v>
@@ -9027,13 +9027,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W16" t="n">
         <v>-0</v>
@@ -9054,13 +9054,13 @@
         <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF16" t="n">
         <v>-0</v>
@@ -9081,13 +9081,13 @@
         <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO16" t="n">
         <v>-0</v>
@@ -9108,13 +9108,13 @@
         <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AV16" t="n">
         <v>0</v>
       </c>
       <c r="AW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX16" t="n">
         <v>-0</v>
@@ -9135,13 +9135,13 @@
         <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BE16" t="n">
         <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG16" t="n">
         <v>-0</v>
@@ -9162,13 +9162,13 @@
         <v>0</v>
       </c>
       <c r="BM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BN16" t="n">
         <v>0</v>
       </c>
       <c r="BO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP16" t="n">
         <v>-0</v>
@@ -9189,13 +9189,13 @@
         <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BW16" t="n">
         <v>0</v>
       </c>
       <c r="BX16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY16" t="n">
         <v>-0</v>
@@ -9216,13 +9216,13 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF16" t="n">
         <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH16" t="n">
         <v>-0</v>
@@ -9243,13 +9243,13 @@
         <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO16" t="n">
         <v>0</v>
       </c>
       <c r="CP16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ16" t="n">
         <v>-0</v>
@@ -9324,13 +9324,13 @@
         <v>0</v>
       </c>
       <c r="DO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DP16" t="n">
         <v>0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR16" t="n">
         <v>-0</v>
@@ -9351,13 +9351,13 @@
         <v>0</v>
       </c>
       <c r="DX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DY16" t="n">
         <v>0</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA16" t="n">
         <v>-0</v>
@@ -9378,13 +9378,13 @@
         <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EH16" t="n">
         <v>0</v>
       </c>
       <c r="EI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ16" t="n">
         <v>-0</v>
@@ -9405,13 +9405,13 @@
         <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ16" t="n">
         <v>0</v>
       </c>
       <c r="ER16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES16" t="n">
         <v>-0</v>
@@ -9432,13 +9432,13 @@
         <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ16" t="n">
         <v>0</v>
       </c>
       <c r="FA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB16" t="n">
         <v>-0</v>
